--- a/ExcelFiles/PharmacyPortal.xlsx
+++ b/ExcelFiles/PharmacyPortal.xlsx
@@ -1,32 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B082735-43DD-4538-BD40-0D8E51AE2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A612D-8BA9-444A-9A9F-22D101BE95E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
     <sheet name="addPatient" sheetId="2" r:id="rId2"/>
+    <sheet name="AddMedication" sheetId="3" r:id="rId3"/>
+    <sheet name="EditMedication" sheetId="5" r:id="rId4"/>
+    <sheet name="DeleteMedication" sheetId="6" r:id="rId5"/>
+    <sheet name="AddPrescription" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
   <si>
     <t>username</t>
   </si>
@@ -34,12 +49,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>saurabh.c4</t>
-  </si>
-  <si>
-    <t>Saurabh@202526</t>
-  </si>
-  <si>
     <t>pat_ethnicity_cod_id</t>
   </si>
   <si>
@@ -184,24 +193,9 @@
     <t>pat_disability_note</t>
   </si>
   <si>
-    <t>href05Reco005</t>
-  </si>
-  <si>
-    <t>B/O</t>
-  </si>
-  <si>
-    <t>Youk</t>
-  </si>
-  <si>
-    <t>Pawar</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>28/09/1994</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
@@ -251,24 +245,286 @@
   </si>
   <si>
     <t>For Testing</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>pacr_category</t>
+  </si>
+  <si>
+    <t>pacr_que_name</t>
+  </si>
+  <si>
+    <t>medi_dose</t>
+  </si>
+  <si>
+    <t>medi_form</t>
+  </si>
+  <si>
+    <t>medi_frequency</t>
+  </si>
+  <si>
+    <t>medi_method</t>
+  </si>
+  <si>
+    <t>medi_route</t>
+  </si>
+  <si>
+    <t>medi_duration</t>
+  </si>
+  <si>
+    <t>meded_value</t>
+  </si>
+  <si>
+    <t>medi_start_date</t>
+  </si>
+  <si>
+    <t>medi_stop_date</t>
+  </si>
+  <si>
+    <t>pacr_status</t>
+  </si>
+  <si>
+    <t>pacr_risk</t>
+  </si>
+  <si>
+    <t>medi_dispensed</t>
+  </si>
+  <si>
+    <t>medi_prescribed_by</t>
+  </si>
+  <si>
+    <t>pcl_location_name</t>
+  </si>
+  <si>
+    <t>pacr_que_name_Diagnosis</t>
+  </si>
+  <si>
+    <t>medi_notes</t>
+  </si>
+  <si>
+    <t>medi_stopped_reason_eli_text</t>
+  </si>
+  <si>
+    <t>mse_text</t>
+  </si>
+  <si>
+    <t>paprd_endorsement</t>
+  </si>
+  <si>
+    <t>paprd_cost</t>
+  </si>
+  <si>
+    <t>meded_value_Price_check_quantity</t>
+  </si>
+  <si>
+    <t>meded_value_Administrator</t>
+  </si>
+  <si>
+    <t>meded_value_PGD</t>
+  </si>
+  <si>
+    <t>meded_value_MaxReffills</t>
+  </si>
+  <si>
+    <t>meded_value_Unit</t>
+  </si>
+  <si>
+    <t>meded_value_Quantity</t>
+  </si>
+  <si>
+    <t>meded_value_Adherent</t>
+  </si>
+  <si>
+    <t>eli_text</t>
+  </si>
+  <si>
+    <t>que_display_text</t>
+  </si>
+  <si>
+    <t>question_name</t>
+  </si>
+  <si>
+    <t>medadt_medication_status</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>06/07/2025</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Added notes for testing</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>PGD</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Adherent</t>
+  </si>
+  <si>
+    <t>Antibacterial</t>
+  </si>
+  <si>
+    <t>Dirty living conditions</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>s.d</t>
+  </si>
+  <si>
+    <t>Saurabh@2025</t>
+  </si>
+  <si>
+    <t>At Afternoon</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Adverse Reaction</t>
+  </si>
+  <si>
+    <t>Prescriber</t>
+  </si>
+  <si>
+    <t>23/06/1982</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>papre_code</t>
+  </si>
+  <si>
+    <t>12348765</t>
+  </si>
+  <si>
+    <t>pre_type</t>
+  </si>
+  <si>
+    <t>OP prescription</t>
+  </si>
+  <si>
+    <t>pre_notes</t>
+  </si>
+  <si>
+    <t>add for testing</t>
+  </si>
+  <si>
+    <t>medi_status</t>
+  </si>
+  <si>
+    <t>medi_risk</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Prescribed</t>
+  </si>
+  <si>
+    <t>Hospital consultant</t>
+  </si>
+  <si>
+    <t>Updated notes for testing</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>Twice a  day</t>
+  </si>
+  <si>
+    <t>12/06/2026</t>
+  </si>
+  <si>
+    <t>14/06/2026</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>Cardio 2</t>
+  </si>
+  <si>
+    <t>Paracetamol 500mg tablets</t>
+  </si>
+  <si>
+    <t>Cardio Location</t>
+  </si>
+  <si>
+    <t>Orally</t>
+  </si>
+  <si>
+    <t>pacr_delete_reason</t>
+  </si>
+  <si>
+    <t>Delete for testing</t>
+  </si>
+  <si>
+    <t>PharmPatientBH</t>
+  </si>
+  <si>
+    <t>href05Reco012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,11 +547,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -303,17 +558,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,9 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -613,11 +866,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -632,11 +885,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BEABD6-BAD9-4B4F-B282-9FCE52D49032}">
   <dimension ref="A1:AV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
@@ -659,246 +912,753 @@
     <col min="23" max="27" width="9.140625" style="1"/>
     <col min="28" max="28" width="12.7109375" style="1" customWidth="1"/>
     <col min="29" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="8.7109375" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>49</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="W2" s="1">
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AO2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E97EB8-CC20-428F-9B49-9E02ADAD0F2B}">
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5DE0D-E686-4FAF-9854-B0387D320519}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="str">
+        <f>AddMedication!B2</f>
+        <v>Paracetamol 500mg tablets</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EE1E1A-F975-4FCE-AC16-98690042CE9C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="str">
+        <f>EditMedication!B2</f>
+        <v>Paracetamol 500mg tablets</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B724E05-6618-48C8-A63A-0BA1FA2211F7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelFiles/PharmacyPortal.xlsx
+++ b/ExcelFiles/PharmacyPortal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A612D-8BA9-444A-9A9F-22D101BE95E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0A50A-EF95-4C40-B976-8658CC447154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,10 @@
     <t>Delete for testing</t>
   </si>
   <si>
-    <t>PharmPatientBH</t>
-  </si>
-  <si>
-    <t>href05Reco012</t>
+    <t>href05Reco019</t>
+  </si>
+  <si>
+    <t>PharmPatientBO</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>130</v>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelFiles/PharmacyPortal.xlsx
+++ b/ExcelFiles/PharmacyPortal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0A50A-EF95-4C40-B976-8658CC447154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D5B7D-25F4-49FF-9795-F38E1110CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,10 @@
     <t>Delete for testing</t>
   </si>
   <si>
-    <t>href05Reco019</t>
-  </si>
-  <si>
-    <t>PharmPatientBO</t>
+    <t>href05Reco020</t>
+  </si>
+  <si>
+    <t>PharmPatientBP</t>
   </si>
 </sst>
 </file>

--- a/ExcelFiles/PharmacyPortal.xlsx
+++ b/ExcelFiles/PharmacyPortal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D5B7D-25F4-49FF-9795-F38E1110CC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF028FA2-C520-49A2-A2A6-A88319233671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,10 @@
     <t>Delete for testing</t>
   </si>
   <si>
-    <t>href05Reco020</t>
-  </si>
-  <si>
-    <t>PharmPatientBP</t>
+    <t>PharmPatientBQ</t>
+  </si>
+  <si>
+    <t>href05Reco021</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>130</v>

--- a/ExcelFiles/PharmacyPortal.xlsx
+++ b/ExcelFiles/PharmacyPortal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF028FA2-C520-49A2-A2A6-A88319233671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19019743-A912-4E03-80DF-C9D4644699F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
   <si>
     <t>username</t>
   </si>
@@ -418,15 +418,6 @@
     <t>Saurabh@2025</t>
   </si>
   <si>
-    <t>At Afternoon</t>
-  </si>
-  <si>
-    <t>Nausea</t>
-  </si>
-  <si>
-    <t>Adverse Reaction</t>
-  </si>
-  <si>
     <t>Prescriber</t>
   </si>
   <si>
@@ -445,73 +436,52 @@
     <t>pre_type</t>
   </si>
   <si>
-    <t>OP prescription</t>
-  </si>
-  <si>
     <t>pre_notes</t>
   </si>
   <si>
     <t>add for testing</t>
   </si>
   <si>
-    <t>medi_status</t>
-  </si>
-  <si>
-    <t>medi_risk</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Prescribed</t>
-  </si>
-  <si>
-    <t>Hospital consultant</t>
-  </si>
-  <si>
-    <t>Updated notes for testing</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>PSD</t>
-  </si>
-  <si>
-    <t>Twice a  day</t>
-  </si>
-  <si>
-    <t>12/06/2026</t>
-  </si>
-  <si>
-    <t>14/06/2026</t>
-  </si>
-  <si>
-    <t>Insomnia</t>
-  </si>
-  <si>
-    <t>Cardio 2</t>
-  </si>
-  <si>
     <t>Paracetamol 500mg tablets</t>
   </si>
   <si>
     <t>Cardio Location</t>
   </si>
   <si>
-    <t>Orally</t>
-  </si>
-  <si>
     <t>pacr_delete_reason</t>
   </si>
   <si>
     <t>Delete for testing</t>
   </si>
   <si>
-    <t>PharmPatientBQ</t>
-  </si>
-  <si>
-    <t>href05Reco021</t>
+    <t>release.manoj</t>
+  </si>
+  <si>
+    <t>Manoj@2025</t>
+  </si>
+  <si>
+    <t>twice daily</t>
+  </si>
+  <si>
+    <t>Drowsiness</t>
+  </si>
+  <si>
+    <t>Side Effect</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Giddiness</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>href05Reco037</t>
+  </si>
+  <si>
+    <t>PharmPatientCI</t>
   </si>
 </sst>
 </file>
@@ -521,10 +491,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,10 +525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -567,8 +546,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -847,9 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -866,16 +849,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CE472D78-4604-4BF2-B83B-FB77AFFC892F}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CE472D78-4604-4BF2-B83B-FB77AFFC892F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{C73F874C-23B6-432D-9905-74A5144E36FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -886,7 +878,7 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +886,9 @@
     <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="15" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1064,22 +1058,22 @@
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>51</v>
@@ -1161,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E97EB8-CC20-428F-9B49-9E02ADAD0F2B}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1306,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>103</v>
@@ -1321,7 +1315,7 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>105</v>
@@ -1348,7 +1342,7 @@
         <v>110</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
         <v>111</v>
@@ -1357,13 +1351,13 @@
         <v>112</v>
       </c>
       <c r="S2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>113</v>
@@ -1372,7 +1366,7 @@
         <v>103</v>
       </c>
       <c r="X2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Y2" t="s">
         <v>114</v>
@@ -1412,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5DE0D-E686-4FAF-9854-B0387D320519}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1438,7 @@
     <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1467,10 +1461,10 @@
         <v>75</v>
       </c>
       <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" t="s">
-        <v>76</v>
       </c>
       <c r="J1" t="s">
         <v>78</v>
@@ -1479,10 +1473,10 @@
         <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
         <v>82</v>
@@ -1491,34 +1485,69 @@
         <v>83</v>
       </c>
       <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" t="s">
-        <v>84</v>
+      <c r="AF1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="str">
-        <f>AddMedication!B2</f>
-        <v>Paracetamol 500mg tablets</v>
+      <c r="B2" t="s">
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>117</v>
@@ -1527,52 +1556,88 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE2" t="s">
         <v>119</v>
       </c>
-      <c r="R2" t="s">
-        <v>148</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" t="s">
-        <v>144</v>
-      </c>
-      <c r="V2" t="s">
-        <v>149</v>
+      <c r="AF2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1601,7 +1666,7 @@
         <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +1678,7 @@
         <v>Paracetamol 500mg tablets</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1691,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,24 +1703,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/PharmacyPortal.xlsx
+++ b/ExcelFiles/PharmacyPortal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19019743-A912-4E03-80DF-C9D4644699F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C29215-676E-4437-A7B1-341A2EE04E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,10 +478,10 @@
     <t>General</t>
   </si>
   <si>
-    <t>href05Reco037</t>
-  </si>
-  <si>
-    <t>PharmPatientCI</t>
+    <t>PharmPatientCJ</t>
+  </si>
+  <si>
+    <t>href05Reco038</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>127</v>

--- a/ExcelFiles/PharmacyPortal.xlsx
+++ b/ExcelFiles/PharmacyPortal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C29215-676E-4437-A7B1-341A2EE04E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC852CD4-022E-4F39-B1DA-2F08FC27F38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,10 +478,10 @@
     <t>General</t>
   </si>
   <si>
-    <t>PharmPatientCJ</t>
-  </si>
-  <si>
-    <t>href05Reco038</t>
+    <t>href05Reco039</t>
+  </si>
+  <si>
+    <t>PharmPatientCK</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>127</v>
